--- a/data/input/employee_absence_data_3.xlsx
+++ b/data/input/employee_absence_data_3.xlsx
@@ -464,161 +464,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32482</v>
+        <v>62526</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rhavi Rios</t>
+          <t>Vitor Pimenta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45106</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>7041.54</v>
+        <v>2926.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26265</v>
+        <v>51123</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Theo Novais</t>
+          <t>Heitor da Rocha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45099</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>8234.219999999999</v>
+        <v>6183.82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55478</v>
+        <v>11740</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sra. Alícia Fonseca</t>
+          <t>Srta. Daniela Machado</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45080</v>
+        <v>45099</v>
       </c>
       <c r="G4" t="n">
-        <v>3051.16</v>
+        <v>3031.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>53106</v>
+        <v>13074</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anthony das Neves</t>
+          <t>Valentina Ribeiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45101</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>9576.83</v>
+        <v>9136.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>31371</v>
+        <v>72070</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isabella Câmara</t>
+          <t>Ana Luiza Mendonça</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45078</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>7336.39</v>
+        <v>8685.620000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74703</v>
+        <v>40263</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Francisco Ferreira</t>
+          <t>Maria Júlia Gomes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,129 +627,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45082</v>
+        <v>45099</v>
       </c>
       <c r="G7" t="n">
-        <v>3661.53</v>
+        <v>8438.73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>32033</v>
+        <v>34174</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Apollo da Mata</t>
+          <t>Augusto Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45085</v>
+        <v>45080</v>
       </c>
       <c r="G8" t="n">
-        <v>5371.89</v>
+        <v>8124.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>60108</v>
+        <v>67322</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maria Laura Leão</t>
+          <t>Léo da Mata</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45088</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>9300.15</v>
+        <v>6351.58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>75161</v>
+        <v>49066</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mathias Pires</t>
+          <t>Calebe Lopes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45083</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>6847.42</v>
+        <v>6265.79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11450</v>
+        <v>54342</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vinícius Barbosa</t>
+          <t>Arthur Miguel da Mota</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>8604</v>
+        <v>7187.96</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_3.xlsx
+++ b/data/input/employee_absence_data_3.xlsx
@@ -464,40 +464,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>62526</v>
+        <v>30017</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vitor Pimenta</t>
+          <t>Pedro Miguel Cavalcanti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45079</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>2926.32</v>
+        <v>9831.379999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>51123</v>
+        <v>92839</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Heitor da Rocha</t>
+          <t>Sr. Dom Sousa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,55 +507,55 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45084</v>
+        <v>45078</v>
       </c>
       <c r="G3" t="n">
-        <v>6183.82</v>
+        <v>9933.610000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11740</v>
+        <v>45948</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Daniela Machado</t>
+          <t>João Gabriel Abreu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>45099</v>
       </c>
       <c r="G4" t="n">
-        <v>3031.34</v>
+        <v>2413.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13074</v>
+        <v>83601</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Valentina Ribeiro</t>
+          <t>Thiago Siqueira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,26 +565,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45097</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>9136.42</v>
+        <v>6873.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>72070</v>
+        <v>51735</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Luiza Mendonça</t>
+          <t>Marina Borges</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -594,31 +594,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45101</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>8685.620000000001</v>
+        <v>6774.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>40263</v>
+        <v>85022</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Júlia Gomes</t>
+          <t>Isabella Dias</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,129 +627,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45099</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>8438.73</v>
+        <v>4479.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34174</v>
+        <v>71972</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Augusto Costa</t>
+          <t>Vicente Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45080</v>
+        <v>45095</v>
       </c>
       <c r="G8" t="n">
-        <v>8124.38</v>
+        <v>7700.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67322</v>
+        <v>68267</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Léo da Mata</t>
+          <t>Ana Clara Peixoto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45105</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>6351.58</v>
+        <v>9849.82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>49066</v>
+        <v>31164</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Calebe Lopes</t>
+          <t>Otto da Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45082</v>
+        <v>45079</v>
       </c>
       <c r="G10" t="n">
-        <v>6265.79</v>
+        <v>7309.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>54342</v>
+        <v>94715</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Arthur Miguel da Mota</t>
+          <t>Bella Peixoto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45086</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>7187.96</v>
+        <v>5711.05</v>
       </c>
     </row>
   </sheetData>
